--- a/Helsinki VRP-ADV version 2/output/results_2.xlsx
+++ b/Helsinki VRP-ADV version 2/output/results_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Delivery_point</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t>Percentage_of_parcels_delivered_(%)</t>
+  </si>
+  <si>
+    <t>Average_waiting_time_(minutes)</t>
+  </si>
+  <si>
+    <t>Average_queue_length</t>
   </si>
   <si>
     <t>12:17</t>
@@ -405,13 +411,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,90 +433,126 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>62</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>88.70999999999999</v>
+      </c>
+      <c r="F2">
+        <v>1.8</v>
+      </c>
+      <c r="G2">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>60</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>53.33</v>
+      </c>
+      <c r="F3">
+        <v>0.28</v>
+      </c>
+      <c r="G3">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>43</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>0.65</v>
+      </c>
+      <c r="G4">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>18</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>83.33</v>
+      </c>
+      <c r="F5">
+        <v>0.88</v>
+      </c>
+      <c r="G5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>37</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>81</v>
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0.71</v>
+      </c>
+      <c r="G6">
+        <v>3.43</v>
       </c>
     </row>
   </sheetData>
@@ -528,7 +570,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/Helsinki VRP-ADV version 2/output/results_2.xlsx
+++ b/Helsinki VRP-ADV version 2/output/results_2.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Delivery_results" sheetId="1" r:id="rId1"/>
     <sheet name="Total_emissions" sheetId="2" r:id="rId2"/>
+    <sheet name="Total_distance" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Delivery_point</t>
   </si>
@@ -54,6 +55,9 @@
   </si>
   <si>
     <t>Total CO2 emissions (gCO2eq)</t>
+  </si>
+  <si>
+    <t>Total distance (km)</t>
   </si>
 </sst>
 </file>
@@ -451,16 +455,16 @@
         <v>62</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E2">
-        <v>88.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>1.8</v>
+        <v>1.26</v>
       </c>
       <c r="G2">
-        <v>6.67</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -474,16 +478,16 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>53.33</v>
+        <v>76.67</v>
       </c>
       <c r="F3">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="G3">
-        <v>1.53</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -497,16 +501,16 @@
         <v>43</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="F4">
-        <v>0.65</v>
+        <v>1.31</v>
       </c>
       <c r="G4">
-        <v>3.77</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -520,16 +524,16 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>83.33</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>0.88</v>
+        <v>1.4</v>
       </c>
       <c r="G5">
-        <v>4.8</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -543,16 +547,16 @@
         <v>37</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>78.38</v>
       </c>
       <c r="F6">
-        <v>0.71</v>
+        <v>0.27</v>
       </c>
       <c r="G6">
-        <v>3.43</v>
+        <v>1.69</v>
       </c>
     </row>
   </sheetData>
@@ -581,4 +585,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>39.76204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>